--- a/analysis/queryResults/FrequentItemsets_forwardSecrecy20022018.xlsx
+++ b/analysis/queryResults/FrequentItemsets_forwardSecrecy20022018.xlsx
@@ -736,6 +736,4759 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Forward Secrecy Values Distribution</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_forwardSecrecy!$B$2,FrequentItemsets_forwardSecrecy!$B$4,FrequentItemsets_forwardSecrecy!$B$6,FrequentItemsets_forwardSecrecy!$B$16)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>{forwardSecrecy=4}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{forwardSecrecy=2}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{forwardSecrecy=1}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{forwardSecrecy=0}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_forwardSecrecy!$C$2,FrequentItemsets_forwardSecrecy!$C$4,FrequentItemsets_forwardSecrecy!$C$6,FrequentItemsets_forwardSecrecy!$C$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.445263785718159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26247085615138499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21285853711435199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.74066041316489E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-161321216"/>
+        <c:axId val="-161318496"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-161321216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-161318496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-161318496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-161321216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Forward Secrecy Value 4 Ratings Distributions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_forwardSecrecy!$B$2,FrequentItemsets_forwardSecrecy!$B$5,FrequentItemsets_forwardSecrecy!$B$10,FrequentItemsets_forwardSecrecy!$B$15,FrequentItemsets_forwardSecrecy!$B$22,FrequentItemsets_forwardSecrecy!$B$25,FrequentItemsets_forwardSecrecy!$B$30,FrequentItemsets_forwardSecrecy!$B$44)</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>{forwardSecrecy=4}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{rating=A,forwardSecrecy=4}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{rating=A+,forwardSecrecy=4}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{rating=B,forwardSecrecy=4}</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>{rating=F,forwardSecrecy=4}</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>{rating=T,forwardSecrecy=4}</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>{rating=C,forwardSecrecy=4}</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>{rating=A-,forwardSecrecy=4}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_forwardSecrecy!$C$2,FrequentItemsets_forwardSecrecy!$C$5,FrequentItemsets_forwardSecrecy!$C$10,FrequentItemsets_forwardSecrecy!$C$15,FrequentItemsets_forwardSecrecy!$C$22,FrequentItemsets_forwardSecrecy!$C$25,FrequentItemsets_forwardSecrecy!$C$30,FrequentItemsets_forwardSecrecy!$C$44)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.445263785718159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22360787290570899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.102274575719785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9290787832782098E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3559073903378001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0224475410724901E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.48972509895353E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.40974895624356E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-46467456"/>
+        <c:axId val="-46475072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-46467456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-46475072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-46475072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-46467456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Forward Secrecy Value 2 Ratings Distributions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_forwardSecrecy!$B$4,FrequentItemsets_forwardSecrecy!$B$7,FrequentItemsets_forwardSecrecy!$B$19,FrequentItemsets_forwardSecrecy!$B$26,FrequentItemsets_forwardSecrecy!$B$31,FrequentItemsets_forwardSecrecy!$B$32,FrequentItemsets_forwardSecrecy!$B$33,FrequentItemsets_forwardSecrecy!$B$40)</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>{forwardSecrecy=2}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{rating=A,forwardSecrecy=2}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{rating=A+,forwardSecrecy=2}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{rating=B,forwardSecrecy=2}</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>{rating=C,forwardSecrecy=2}</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>{rating=T,forwardSecrecy=2}</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>{rating=F,forwardSecrecy=2}</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>{rating=A-,forwardSecrecy=2}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_forwardSecrecy!$C$4,FrequentItemsets_forwardSecrecy!$C$7,FrequentItemsets_forwardSecrecy!$C$19,FrequentItemsets_forwardSecrecy!$C$26,FrequentItemsets_forwardSecrecy!$C$31,FrequentItemsets_forwardSecrecy!$C$32,FrequentItemsets_forwardSecrecy!$C$33,FrequentItemsets_forwardSecrecy!$C$40)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.26247085615138499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16660792712682301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8212329881255801E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0129588461746999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.44634820799219E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0925554410887601E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9766849211082795E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1552892696416002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-46471808"/>
+        <c:axId val="-46470176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-46471808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-46470176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-46470176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-46471808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Forward Secrecy Value 0 Ratings Distributions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_forwardSecrecy!$B$16,FrequentItemsets_forwardSecrecy!$B$24,FrequentItemsets_forwardSecrecy!$B$27,FrequentItemsets_forwardSecrecy!$B$29,FrequentItemsets_forwardSecrecy!$B$36,FrequentItemsets_forwardSecrecy!$B$37)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>{forwardSecrecy=0}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{rating=F,forwardSecrecy=0}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{rating=A-,forwardSecrecy=0}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{rating=C,forwardSecrecy=0}</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>{rating=T,forwardSecrecy=0}</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>{rating=B,forwardSecrecy=0}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_forwardSecrecy!$C$16,FrequentItemsets_forwardSecrecy!$C$24,FrequentItemsets_forwardSecrecy!$C$27,FrequentItemsets_forwardSecrecy!$C$29,FrequentItemsets_forwardSecrecy!$C$36,FrequentItemsets_forwardSecrecy!$C$37)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.74066041316489E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0875128775145E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.59138968714417E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5100580165916601E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7788320772108698E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7381662419346101E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-161311968"/>
+        <c:axId val="-161309792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-161311968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-161309792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-161309792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-161311968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Forward Secrecy Value 1 Ratings Distributions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_forwardSecrecy!$B$6,FrequentItemsets_forwardSecrecy!$B$14,FrequentItemsets_forwardSecrecy!$B$18,FrequentItemsets_forwardSecrecy!$B$20,FrequentItemsets_forwardSecrecy!$B$21,FrequentItemsets_forwardSecrecy!$B$28,FrequentItemsets_forwardSecrecy!$B$45)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>{forwardSecrecy=1}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{rating=A-,forwardSecrecy=1}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{rating=B,forwardSecrecy=1}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{rating=C,forwardSecrecy=1}</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>{rating=F,forwardSecrecy=1}</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>{rating=T,forwardSecrecy=1}</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>{rating=A,forwardSecrecy=1}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_forwardSecrecy!$C$6,FrequentItemsets_forwardSecrecy!$C$14,FrequentItemsets_forwardSecrecy!$C$18,FrequentItemsets_forwardSecrecy!$C$20,FrequentItemsets_forwardSecrecy!$C$21,FrequentItemsets_forwardSecrecy!$C$28,FrequentItemsets_forwardSecrecy!$C$45)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.21285853711435199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6966870899528306E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9381879303800898E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.72227945562002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3671311608740401E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5453017404977501E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0844222740335099E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-43437040"/>
+        <c:axId val="-43435952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-43437040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-43435952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-43435952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-43437040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>34017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>56697</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>53068</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>242661</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>91168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>113393</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1001,8 +5754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,5 +6392,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/analysis/queryResults/FrequentItemsets_forwardSecrecy20022018.xlsx
+++ b/analysis/queryResults/FrequentItemsets_forwardSecrecy20022018.xlsx
@@ -942,11 +942,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-161321216"/>
-        <c:axId val="-161318496"/>
+        <c:axId val="-1483734816"/>
+        <c:axId val="-1483746240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-161321216"/>
+        <c:axId val="-1483734816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -989,7 +989,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-161318496"/>
+        <c:crossAx val="-1483746240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -997,7 +997,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-161318496"/>
+        <c:axId val="-1483746240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1048,7 +1048,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-161321216"/>
+        <c:crossAx val="-1483734816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1092,7 +1092,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1327,11 +1327,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-46467456"/>
-        <c:axId val="-46475072"/>
+        <c:axId val="-1483737536"/>
+        <c:axId val="-1483742976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-46467456"/>
+        <c:axId val="-1483737536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,7 +1374,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-46475072"/>
+        <c:crossAx val="-1483742976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1382,7 +1382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-46475072"/>
+        <c:axId val="-1483742976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1433,7 +1433,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-46467456"/>
+        <c:crossAx val="-1483737536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1477,7 +1477,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1712,11 +1712,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-46471808"/>
-        <c:axId val="-46470176"/>
+        <c:axId val="-1483731552"/>
+        <c:axId val="-1483739712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-46471808"/>
+        <c:axId val="-1483731552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1759,7 +1759,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-46470176"/>
+        <c:crossAx val="-1483739712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1767,7 +1767,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-46470176"/>
+        <c:axId val="-1483739712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,7 +1818,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-46471808"/>
+        <c:crossAx val="-1483731552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1862,7 +1862,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2085,11 +2085,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-161311968"/>
-        <c:axId val="-161309792"/>
+        <c:axId val="-1483744064"/>
+        <c:axId val="-1483741344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-161311968"/>
+        <c:axId val="-1483744064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2132,7 +2132,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-161309792"/>
+        <c:crossAx val="-1483741344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2140,7 +2140,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-161309792"/>
+        <c:axId val="-1483741344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,7 +2191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-161311968"/>
+        <c:crossAx val="-1483744064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2235,7 +2235,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2464,11 +2464,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-43437040"/>
-        <c:axId val="-43435952"/>
+        <c:axId val="-1483742432"/>
+        <c:axId val="-1483733184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-43437040"/>
+        <c:axId val="-1483742432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2511,7 +2511,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-43435952"/>
+        <c:crossAx val="-1483733184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2519,7 +2519,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-43435952"/>
+        <c:axId val="-1483733184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2570,7 +2570,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-43437040"/>
+        <c:crossAx val="-1483742432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2614,7 +2614,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -5754,8 +5754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
